--- a/Tomato-Disease-Detector.xlsx
+++ b/Tomato-Disease-Detector.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60" count="60">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38" count="38">
   <x:si>
     <x:t>$__</x:t>
   </x:si>
@@ -31,169 +31,103 @@
     <x:t>[object Object]</x:t>
   </x:si>
   <x:si>
-    <x:t>{"fname":"jolie catherine","lname":"Izabayo","gender":"male","phone":"0789364996","email":"izabayocatherine@gmail.com","userType":"farmer","createdAt":"2022-02-01T16:00:28.481Z","updatedAt":"2022-02-01T16:00:28.578Z","__v":1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"Felix","lname":"NTIVUGURUZWA","gender":"male","phone":"0788596281","email":"emmanuel@gmail.com","userType":"farmer","createdAt":"2022-02-01T16:09:11.793Z","updatedAt":"2022-05-21T14:55:55.723Z","__v":30}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"Olive","lname":"NIREBA","gender":"female","phone":"0788596282","email":"sector@gmail.com","userType":"sector","createdAt":"2022-02-01T19:06:00.414Z","updatedAt":"2022-05-21T14:01:55.798Z","__v":30}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"Michel","lname":"DUKUZUMU...","gender":"Male","phone":"0788596283","email":"district@gmail.com","userType":"district","createdAt":"2022-02-01T19:08:14.000Z","updatedAt":"2022-05-21T14:58:48.829Z","__v":21}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"Joseph","lname":"CYIZA","gender":"Male","phone":"0788596284","email":"rab@gmail.com","userType":"rab","createdAt":"2022-02-01T19:08:41.868Z","updatedAt":"2022-07-03T10:17:21.879Z","__v":55}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"Christian","lname":"other","gender":"Male","phone":"0788000000","email":"user@gmail.com","userType":"farmer","createdAt":"2022-03-25T14:53:10.890Z","updatedAt":"2022-04-11T16:14:52.077Z","__v":6}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"Joseph","lname":"CYIZA","gender":"male","phone":"0783574854","email":"joseph01@gmail.com","userType":"farmer","createdAt":"2022-04-11T16:21:18.180Z","updatedAt":"2022-04-13T20:39:49.291Z","__v":3}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"fab","lname":"gaso","gender":"male","phone":"0788554433","email":"fabgaso@gmail.com","userType":"farmer","createdAt":"2022-04-25T11:00:02.222Z","updatedAt":"2022-04-25T11:00:33.773Z","__v":2}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"Benjamin","lname":"safari","gender":"male","phone":"0788316328","email":"safaribenj17@gmail.com","userType":"farmer","createdAt":"2022-04-28T10:13:26.072Z","updatedAt":"2022-04-28T10:13:34.995Z","__v":2}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"joy","lname":"cyiza","gender":"male","phone":"0782574854","email":"josephlycyizaza@gmail.com","userType":"farmer","createdAt":"2022-04-28T10:31:14.462Z","updatedAt":"2022-04-28T10:31:33.389Z","__v":2}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"john","lname":"murenzi","gender":"male","phone":"0788596287","email":"jomure@gmail.com","userType":"farmer","createdAt":"2022-05-04T10:06:40.650Z","updatedAt":"2022-05-04T10:08:07.103Z","__v":2}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"Olive","lname":"NIREBA","gender":"Male","phone":"0783230879","email":"rab@gmail.com","userType":"district","createdAt":"2022-05-05T21:33:48.534Z","updatedAt":"2022-05-05T21:33:48.582Z","__v":1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"test","lname":"test","gender":"male","phone":"0788396281","email":"emmaygmail.com","userType":"famer","createdAt":"2022-05-05T22:03:43.319Z","updatedAt":"2022-05-05T22:03:43.319Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"test","lname":"test","gender":"male","phone":"0788336281","email":"emmaygmail.com","userType":"famer","createdAt":"2022-05-05T22:04:30.881Z","updatedAt":"2022-05-05T22:04:30.881Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"emms","lname":"sjsjd","gender":"male","phone":"0788246464","email":"shshshdhhhsbs","userType":"famer","createdAt":"2022-05-05T22:05:36.883Z","updatedAt":"2022-05-05T22:05:36.883Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"emms","lname":"sjsjd","gender":"male","phone":"0788236464","email":"shshshdhhhsbs","userType":"famer","createdAt":"2022-05-05T22:07:30.837Z","updatedAt":"2022-05-05T22:07:30.837Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"emms","lname":"sjsjd","gender":"male","phone":"0788236364","email":"shshshdhhhsbs","userType":"district","createdAt":"2022-05-05T22:08:07.674Z","updatedAt":"2022-05-26T15:23:50.036Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"test","lname":"test","gender":"male","phone":"0788546464","email":"djntivuguruzwa@gmail.com","userType":"farmer","createdAt":"2022-05-07T17:33:56.919Z","updatedAt":"2022-05-07T17:33:56.919Z","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"Faustin","lname":"Manishimwe","gender":"male","phone":"0788596289","email":"fmani@gmail.com","userType":"farmer","createdAt":"2022-05-08T08:53:07.732Z","updatedAt":"2022-05-17T07:28:01.163Z","__v":4}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"Tata","lname":"Ihimbazwe","gender":"male","phone":"0788596290","email":"taihimb@gmail.com","userType":"sector","createdAt":"2022-05-08T09:46:06.641Z","updatedAt":"2022-05-08T10:09:14.603Z","__v":3}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"Chris","lname":"Namani","gender":"male","phone":"0788596291","email":"chrisnama@gmail.com","userType":"sector","createdAt":"2022-05-08T09:59:09.588Z","updatedAt":"2022-05-30T07:21:25.120Z","__v":4}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"hhh","lname":"jjh","gender":"male","phone":"078000000","email":"tggg","userType":"driver","createdAt":"2022-05-21T14:08:29.365Z","updatedAt":"2022-05-21T14:08:29.389Z","__v":1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"manzi","lname":"karemera","gender":"male","phone":"0788596293","email":"manzikare@gmail.com","userType":"rab","createdAt":"2022-05-24T19:25:13.084Z","updatedAt":"2022-05-26T15:28:04.301Z","__v":2}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"felix","lname":"amani","gender":"male","phone":"0788596294","email":"hak@gmail.com","userType":"driver","createdAt":"2022-05-30T08:11:17.500Z","updatedAt":"2022-05-30T08:11:17.525Z","__v":1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"teat","lname":"test","gender":"male","phone":"0788596233","email":"email@gmail.com","userType":"rab","createdAt":"2022-05-30T08:50:59.544Z","updatedAt":"2022-05-30T08:50:59.569Z","__v":1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"amani","lname":"michel","gender":"male","phone":"0788596295","email":"amam@gmail. com","userType":"doctor","createdAt":"2022-05-30T08:56:36.087Z","updatedAt":"2022-05-30T08:56:36.112Z","__v":1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"Jambo","lname":"Salim","gender":"male","phone":"0788596296","email":"jamsa@gmail. com","userType":"driver","createdAt":"2022-05-30T08:59:10.801Z","updatedAt":"2022-05-30T08:59:10.825Z","__v":1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"fname":"Jane","lname":"Tuyishime","gender":"male","phone":"0788596297","email":"jatuyi@gmail.com","userType":"famer","createdAt":"2022-05-30T10:43:51.986Z","updatedAt":"2022-05-30T10:43:52.009Z","__v":1}</x:t>
+    <x:t>{"farmer":{"phone":"0783574854","fname":"Joseph","lname":"CYIZA"},"location":{"country":"Rwanda","province":"KIGALI City","district":"GASABO","sector":"rukiri II","cell":"rebero"},"disease":{"name":"Late Blight","description":"Tomato late blight is caused by the oomycete pathogen Phytophthora infestans (P. infestans)."},"status":true,"__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"farmer":{"phone":"0783574854","fname":"Joseph","lname":"CYIZA"},"location":{"country":"Rwanda","province":"KIGALI City","district":"GASABO","sector":"rukiri II","cell":"rebero"},"disease":{"name":"Early blight","description":"not found"},"status":true,"__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"farmer":{"phone":"0788596281","fname":"Emmanuel","lname":"NTIVUGURUZWA"},"location":{"country":"Rwanda","province":"KIGALI CITY","district":"Gasabo","sector":"REMERA","cell":"Rukili II"},"disease":{"name":"Rate sdjvhmb","description":"testing description"},"status":true,"__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"farmer":{"phone":"0783574854","fname":"Joseph","lname":"CYIZA"},"location":{"country":"Rwanda","province":"KIGALI City","district":"GASABO","sector":"rukiri II","cell":"rebero"},"disease":{"name":"Septoria Leaf Spot","description":"Septoria leaf sport is Caused by the fungus Septoria lycopersici, this widespread disease is also called Septoria blight."},"status":true,"__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"farmer":{"phone":"0788316328","fname":"Benjamin","lname":"safari"},"location":{"country":"Rwanda","province":"Kigali city","district":"gasabo","sector":"Remera","cell":"Rukiri2"},"disease":{"name":"Early blight","description":"not found"},"status":true,"__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"farmer":{"phone":"0782574854","fname":"joy","lname":"cyiza"},"location":{"country":"Rwanda","province":"kigali","district":"gasabo","sector":"remera","cell":"rukiri 2"},"disease":{"name":"Late Blight","description":"Tomato late blight is caused by the oomycete pathogen Phytophthora infestans (P. infestans)."},"status":true,"__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"farmer":{"phone":"0788596287","fname":"john","lname":"murenzi"},"location":{"country":"Rwanda","province":"kigali city","district":"gasabo","sector":"remera","cell":"ubumwe"},"disease":{"name":"Early blight","description":"not found"},"status":true,"__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"farmer":{"phone":"0788596281","fname":"Felix","lname":"NTIVUGURUZWA"},"location":{"country":"Rwanda","province":"KIGALI CITY","district":"Gasabo","sector":"REMERA","cell":"Rukili II 2"},"disease":{"name":"Leaf Mold","description":"Tomato leaf mold is a fungal disease, extended periods of leaf wetness, relative humidity is high (greater than 85 percent). A primarily in hoophouses and greenhouses."},"status":true,"__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"farmer":{"phone":"0788596288","fname":"Joyce","lname":"Ishimwe"},"location":{"country":"Rwanda","province":"Eastern","district":"Kirehe","sector":"cyizere","cell":"ubumwe"},"disease":{"name":"Leaf Mold","description":"Tomato leaf mold is a fungal disease, extended periods of leaf wetness, relative humidity is high (greater than 85 percent). A primarily in hoophouses and greenhouses."},"status":true,"__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"farmer":{"phone":"0788596288","fname":"Joyce","lname":"Ishimwe"},"location":{"country":"Rwanda","province":"Eastern","district":"Kirehe","sector":"cyizere","cell":"ubumwe"},"disease":{"name":"Spider Mites Two Spotted Spider Mite","description":"this is is the description of tomatiom Spider Mites Two Spotted Spider Mite"},"status":true,"__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"farmer":{"phone":"0788596281","fname":"Felix","lname":"NTIVUGURUZWA"},"location":{"country":"Rwanda","province":"KIGALI CITY","district":"Gasabo","sector":"REMERA","cell":"Rukili II 2"},"disease":{"name":"Late Blight","description":"Tomato late blight is caused by the oomycete pathogen Phytophthora infestans (P. infestans)."},"status":true,"__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"farmer":{"phone":"0788596292","fname":"Manzi","lname":"Moise"},"location":{"country":"Rwanda","province":"city of kigali","district":"nyarugenge","sector":"remera","cell":"rukiri 2"},"disease":{"name":"Septoria Leaf Spot","description":"Septoria leaf sport is Caused by the fungus Septoria lycopersici, this widespread disease is also called Septoria blight."},"status":true,"__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"farmer":{"phone":"0788596281","fname":"Felix","lname":"NTIVUGURUZWA"},"location":{"country":"Rwanda","province":"KIGALI CITY","district":"Nyarugenge","sector":"REMERA","cell":"Rukili II 2"},"disease":{"name":"Early blight","description":"not found"},"status":true,"__v":0}</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -592,7 +526,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D3" s="0" t="b">
         <x:v>1</x:v>
@@ -600,13 +534,13 @@
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D4" s="0" t="b">
         <x:v>1</x:v>
@@ -614,13 +548,13 @@
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D5" s="0" t="b">
         <x:v>1</x:v>
@@ -628,13 +562,13 @@
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B6" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="0" t="b">
         <x:v>1</x:v>
@@ -642,13 +576,13 @@
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B7" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="0" t="b">
         <x:v>1</x:v>
@@ -656,13 +590,13 @@
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B8" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D8" s="0" t="b">
         <x:v>1</x:v>
@@ -670,13 +604,13 @@
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B9" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D9" s="0" t="b">
         <x:v>1</x:v>
@@ -684,13 +618,13 @@
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D10" s="0" t="b">
         <x:v>1</x:v>
@@ -698,13 +632,13 @@
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B11" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D11" s="0" t="b">
         <x:v>1</x:v>
@@ -712,13 +646,13 @@
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B12" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D12" s="0" t="b">
         <x:v>1</x:v>
@@ -726,13 +660,13 @@
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B13" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D13" s="0" t="b">
         <x:v>1</x:v>
@@ -740,13 +674,13 @@
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B14" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D14" s="0" t="b">
         <x:v>1</x:v>
@@ -754,13 +688,13 @@
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B15" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D15" s="0" t="b">
         <x:v>1</x:v>
@@ -768,13 +702,13 @@
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B16" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D16" s="0" t="b">
         <x:v>1</x:v>
@@ -782,13 +716,13 @@
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B17" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D17" s="0" t="b">
         <x:v>1</x:v>
@@ -796,13 +730,13 @@
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B18" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D18" s="0" t="b">
         <x:v>1</x:v>
@@ -810,13 +744,13 @@
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B19" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D19" s="0" t="b">
         <x:v>1</x:v>
@@ -824,13 +758,13 @@
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B20" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D20" s="0" t="b">
         <x:v>1</x:v>
@@ -838,13 +772,13 @@
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B21" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D21" s="0" t="b">
         <x:v>1</x:v>
@@ -852,113 +786,15 @@
     </x:row>
     <x:row r="22" spans="1:4">
       <x:c r="A22" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B22" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D22" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="A23" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4">
-      <x:c r="A24" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:4">
-      <x:c r="A25" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4">
-      <x:c r="A26" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4">
-      <x:c r="A27" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:4">
-      <x:c r="A28" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:4">
-      <x:c r="A29" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B29" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
